--- a/public/Ticket Finish.xlsx
+++ b/public/Ticket Finish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\i-mirs\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\ADI DARMONO\i-mirs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEBFB4-EBBE-4A76-89E2-37F35CC2F392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BB876-E18B-4E0D-B377-37873EC62757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Export" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet1!$A$13:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet1!$B$2:$I$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -188,11 +188,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -219,6 +214,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -358,28 +358,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,9 +409,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>5861</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>46383</xdr:rowOff>
+      <xdr:rowOff>62949</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3921369" cy="374141"/>
+    <xdr:ext cx="3862117" cy="339004"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectangle 1">
@@ -425,8 +425,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="175846" y="46383"/>
-          <a:ext cx="3921369" cy="374141"/>
+          <a:off x="171513" y="62949"/>
+          <a:ext cx="3862117" cy="339004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -441,7 +441,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" cap="none" spc="0">
+            <a:rPr lang="en-US" sz="1600" b="1" cap="none" spc="0">
               <a:ln w="0"/>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -755,32 +755,32 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -861,42 +861,42 @@
       <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -905,29 +905,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F1BF87-762F-440D-88CA-B1BF3A57C479}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1"/>
-    <col min="8" max="8" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="1"/>
+    <col min="6" max="6" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1"/>
+    <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="7.8" customHeight="1"/>
-    <row r="2" spans="1:9" ht="5.4" customHeight="1">
+    <row r="1" spans="1:9" ht="7.9" customHeight="1"/>
+    <row r="2" spans="1:9" ht="5.45" customHeight="1">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -939,18 +942,18 @@
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1">
       <c r="B3" s="6"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="16.2" customHeight="1">
+    <row r="4" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="17" t="str">
@@ -963,10 +966,10 @@
       <c r="H4" s="17"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="16.2" customHeight="1">
+    <row r="5" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="17" t="str">
@@ -979,10 +982,10 @@
       <c r="H5" s="17"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="16.2" customHeight="1">
+    <row r="6" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="17" t="str">
@@ -995,10 +998,10 @@
       <c r="H6" s="17"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="16.2" customHeight="1">
+    <row r="7" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="17" t="str">
@@ -1011,10 +1014,10 @@
       <c r="H7" s="17"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="16.2" customHeight="1">
+    <row r="8" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="17" t="str">
@@ -1027,10 +1030,10 @@
       <c r="H8" s="17"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="16.2" customHeight="1">
+    <row r="9" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="17" t="str">
@@ -1043,10 +1046,10 @@
       <c r="H9" s="17"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" customHeight="1">
+    <row r="10" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="17" t="str">
@@ -1059,10 +1062,10 @@
       <c r="H10" s="17"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" customHeight="1">
+    <row r="11" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="17" t="str">
@@ -1075,14 +1078,14 @@
       <c r="H11" s="17"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="16.2" customHeight="1">
+    <row r="12" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="17" t="str">
-        <f>IF('Sheet Export'!I2&lt;&gt;"",'Sheet Export'!I2,"")</f>
+        <f>IF('Sheet Export'!K2&lt;&gt;"",'Sheet Export'!K2,"")</f>
         <v/>
       </c>
       <c r="E12" s="17"/>
@@ -1091,10 +1094,10 @@
       <c r="H12" s="17"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="16.2" customHeight="1">
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="17" t="str">
@@ -1107,10 +1110,10 @@
       <c r="H13" s="17"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="16.2" customHeight="1">
+    <row r="14" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="17" t="str">
@@ -1123,10 +1126,10 @@
       <c r="H14" s="17"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="16.2" customHeight="1">
+    <row r="15" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="17" t="str">
@@ -1139,63 +1142,63 @@
       <c r="H15" s="17"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="16.2" customHeight="1">
+    <row r="16" spans="1:9" ht="16.149999999999999" customHeight="1">
       <c r="B16" s="6"/>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="6"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="6"/>
-      <c r="C18" s="9" t="str">
+      <c r="C18" s="14" t="str">
         <f>IF('Sheet Trial'!A2 &lt;&gt; "",'Sheet Trial'!A2,"")</f>
         <v/>
       </c>
-      <c r="D18" s="13" t="str">
+      <c r="D18" s="15" t="str">
         <f>IF('Sheet Trial'!B2 &lt;&gt; "",'Sheet Trial'!B2,"")</f>
         <v/>
       </c>
-      <c r="E18" s="13" t="str">
+      <c r="E18" s="15" t="str">
         <f>IF('Sheet Trial'!C2 &lt;&gt; "",'Sheet Trial'!C2,"")</f>
         <v/>
       </c>
-      <c r="F18" s="13" t="str">
+      <c r="F18" s="15" t="str">
         <f>IF('Sheet Trial'!D2 &lt;&gt; "",'Sheet Trial'!D2,"")</f>
         <v/>
       </c>
-      <c r="G18" s="13" t="str">
+      <c r="G18" s="15" t="str">
         <f>IF('Sheet Trial'!E2 &lt;&gt; "",'Sheet Trial'!E2,"")</f>
         <v/>
       </c>
-      <c r="H18" s="13" t="str">
+      <c r="H18" s="15" t="str">
         <f>IF('Sheet Trial'!F2 &lt;&gt; "",'Sheet Trial'!F2,"")</f>
         <v/>
       </c>
@@ -1203,27 +1206,27 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="6"/>
-      <c r="C19" s="9" t="str">
+      <c r="C19" s="14" t="str">
         <f>IF('Sheet Trial'!A3 &lt;&gt; "",'Sheet Trial'!A3,"")</f>
         <v/>
       </c>
-      <c r="D19" s="13" t="str">
+      <c r="D19" s="15" t="str">
         <f>IF('Sheet Trial'!B3 &lt;&gt; "",'Sheet Trial'!B3,"")</f>
         <v/>
       </c>
-      <c r="E19" s="13" t="str">
+      <c r="E19" s="15" t="str">
         <f>IF('Sheet Trial'!C3 &lt;&gt; "",'Sheet Trial'!C3,"")</f>
         <v/>
       </c>
-      <c r="F19" s="13" t="str">
+      <c r="F19" s="15" t="str">
         <f>IF('Sheet Trial'!D3 &lt;&gt; "",'Sheet Trial'!D3,"")</f>
         <v/>
       </c>
-      <c r="G19" s="13" t="str">
+      <c r="G19" s="15" t="str">
         <f>IF('Sheet Trial'!E3 &lt;&gt; "",'Sheet Trial'!E3,"")</f>
         <v/>
       </c>
-      <c r="H19" s="13" t="str">
+      <c r="H19" s="15" t="str">
         <f>IF('Sheet Trial'!F3 &lt;&gt; "",'Sheet Trial'!F3,"")</f>
         <v/>
       </c>
@@ -1231,27 +1234,27 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="6"/>
-      <c r="C20" s="9" t="str">
+      <c r="C20" s="14" t="str">
         <f>IF('Sheet Trial'!A4 &lt;&gt; "",'Sheet Trial'!A4,"")</f>
         <v/>
       </c>
-      <c r="D20" s="13" t="str">
+      <c r="D20" s="15" t="str">
         <f>IF('Sheet Trial'!B4 &lt;&gt; "",'Sheet Trial'!B4,"")</f>
         <v/>
       </c>
-      <c r="E20" s="13" t="str">
+      <c r="E20" s="15" t="str">
         <f>IF('Sheet Trial'!C4 &lt;&gt; "",'Sheet Trial'!C4,"")</f>
         <v/>
       </c>
-      <c r="F20" s="13" t="str">
+      <c r="F20" s="15" t="str">
         <f>IF('Sheet Trial'!D4 &lt;&gt; "",'Sheet Trial'!D4,"")</f>
         <v/>
       </c>
-      <c r="G20" s="13" t="str">
+      <c r="G20" s="15" t="str">
         <f>IF('Sheet Trial'!E4 &lt;&gt; "",'Sheet Trial'!E4,"")</f>
         <v/>
       </c>
-      <c r="H20" s="13" t="str">
+      <c r="H20" s="15" t="str">
         <f>IF('Sheet Trial'!F4 &lt;&gt; "",'Sheet Trial'!F4,"")</f>
         <v/>
       </c>
@@ -1259,27 +1262,27 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="6"/>
-      <c r="C21" s="9" t="str">
+      <c r="C21" s="14" t="str">
         <f>IF('Sheet Trial'!A5 &lt;&gt; "",'Sheet Trial'!A5,"")</f>
         <v/>
       </c>
-      <c r="D21" s="13" t="str">
+      <c r="D21" s="15" t="str">
         <f>IF('Sheet Trial'!B5 &lt;&gt; "",'Sheet Trial'!B5,"")</f>
         <v/>
       </c>
-      <c r="E21" s="13" t="str">
+      <c r="E21" s="15" t="str">
         <f>IF('Sheet Trial'!C5 &lt;&gt; "",'Sheet Trial'!C5,"")</f>
         <v/>
       </c>
-      <c r="F21" s="13" t="str">
+      <c r="F21" s="15" t="str">
         <f>IF('Sheet Trial'!D5 &lt;&gt; "",'Sheet Trial'!D5,"")</f>
         <v/>
       </c>
-      <c r="G21" s="13" t="str">
+      <c r="G21" s="15" t="str">
         <f>IF('Sheet Trial'!E5 &lt;&gt; "",'Sheet Trial'!E5,"")</f>
         <v/>
       </c>
-      <c r="H21" s="13" t="str">
+      <c r="H21" s="15" t="str">
         <f>IF('Sheet Trial'!F5 &lt;&gt; "",'Sheet Trial'!F5,"")</f>
         <v/>
       </c>
@@ -1287,27 +1290,27 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="6"/>
-      <c r="C22" s="9" t="str">
+      <c r="C22" s="14" t="str">
         <f>IF('Sheet Trial'!A6 &lt;&gt; "",'Sheet Trial'!A6,"")</f>
         <v/>
       </c>
-      <c r="D22" s="13" t="str">
+      <c r="D22" s="15" t="str">
         <f>IF('Sheet Trial'!B6 &lt;&gt; "",'Sheet Trial'!B6,"")</f>
         <v/>
       </c>
-      <c r="E22" s="13" t="str">
+      <c r="E22" s="15" t="str">
         <f>IF('Sheet Trial'!C6 &lt;&gt; "",'Sheet Trial'!C6,"")</f>
         <v/>
       </c>
-      <c r="F22" s="13" t="str">
+      <c r="F22" s="15" t="str">
         <f>IF('Sheet Trial'!D6 &lt;&gt; "",'Sheet Trial'!D6,"")</f>
         <v/>
       </c>
-      <c r="G22" s="13" t="str">
+      <c r="G22" s="15" t="str">
         <f>IF('Sheet Trial'!E6 &lt;&gt; "",'Sheet Trial'!E6,"")</f>
         <v/>
       </c>
-      <c r="H22" s="13" t="str">
+      <c r="H22" s="15" t="str">
         <f>IF('Sheet Trial'!F6 &lt;&gt; "",'Sheet Trial'!F6,"")</f>
         <v/>
       </c>
@@ -1315,27 +1318,27 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="6"/>
-      <c r="C23" s="9" t="str">
+      <c r="C23" s="14" t="str">
         <f>IF('Sheet Trial'!A7 &lt;&gt; "",'Sheet Trial'!A7,"")</f>
         <v/>
       </c>
-      <c r="D23" s="13" t="str">
+      <c r="D23" s="15" t="str">
         <f>IF('Sheet Trial'!B7 &lt;&gt; "",'Sheet Trial'!B7,"")</f>
         <v/>
       </c>
-      <c r="E23" s="13" t="str">
+      <c r="E23" s="15" t="str">
         <f>IF('Sheet Trial'!C7 &lt;&gt; "",'Sheet Trial'!C7,"")</f>
         <v/>
       </c>
-      <c r="F23" s="13" t="str">
+      <c r="F23" s="15" t="str">
         <f>IF('Sheet Trial'!D7 &lt;&gt; "",'Sheet Trial'!D7,"")</f>
         <v/>
       </c>
-      <c r="G23" s="13" t="str">
+      <c r="G23" s="15" t="str">
         <f>IF('Sheet Trial'!E7 &lt;&gt; "",'Sheet Trial'!E7,"")</f>
         <v/>
       </c>
-      <c r="H23" s="13" t="str">
+      <c r="H23" s="15" t="str">
         <f>IF('Sheet Trial'!F7 &lt;&gt; "",'Sheet Trial'!F7,"")</f>
         <v/>
       </c>
@@ -1343,27 +1346,27 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="6"/>
-      <c r="C24" s="9" t="str">
+      <c r="C24" s="14" t="str">
         <f>IF('Sheet Trial'!A8 &lt;&gt; "",'Sheet Trial'!A8,"")</f>
         <v/>
       </c>
-      <c r="D24" s="13" t="str">
+      <c r="D24" s="15" t="str">
         <f>IF('Sheet Trial'!B8 &lt;&gt; "",'Sheet Trial'!B8,"")</f>
         <v/>
       </c>
-      <c r="E24" s="13" t="str">
+      <c r="E24" s="15" t="str">
         <f>IF('Sheet Trial'!C8 &lt;&gt; "",'Sheet Trial'!C8,"")</f>
         <v/>
       </c>
-      <c r="F24" s="13" t="str">
+      <c r="F24" s="15" t="str">
         <f>IF('Sheet Trial'!D8 &lt;&gt; "",'Sheet Trial'!D8,"")</f>
         <v/>
       </c>
-      <c r="G24" s="13" t="str">
+      <c r="G24" s="15" t="str">
         <f>IF('Sheet Trial'!E8 &lt;&gt; "",'Sheet Trial'!E8,"")</f>
         <v/>
       </c>
-      <c r="H24" s="13" t="str">
+      <c r="H24" s="15" t="str">
         <f>IF('Sheet Trial'!F8 &lt;&gt; "",'Sheet Trial'!F8,"")</f>
         <v/>
       </c>
@@ -1371,27 +1374,27 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="6"/>
-      <c r="C25" s="9" t="str">
+      <c r="C25" s="14" t="str">
         <f>IF('Sheet Trial'!A9 &lt;&gt; "",'Sheet Trial'!A9,"")</f>
         <v/>
       </c>
-      <c r="D25" s="13" t="str">
+      <c r="D25" s="15" t="str">
         <f>IF('Sheet Trial'!B9 &lt;&gt; "",'Sheet Trial'!B9,"")</f>
         <v/>
       </c>
-      <c r="E25" s="13" t="str">
+      <c r="E25" s="15" t="str">
         <f>IF('Sheet Trial'!C9 &lt;&gt; "",'Sheet Trial'!C9,"")</f>
         <v/>
       </c>
-      <c r="F25" s="13" t="str">
+      <c r="F25" s="15" t="str">
         <f>IF('Sheet Trial'!D9 &lt;&gt; "",'Sheet Trial'!D9,"")</f>
         <v/>
       </c>
-      <c r="G25" s="13" t="str">
+      <c r="G25" s="15" t="str">
         <f>IF('Sheet Trial'!E9 &lt;&gt; "",'Sheet Trial'!E9,"")</f>
         <v/>
       </c>
-      <c r="H25" s="13" t="str">
+      <c r="H25" s="15" t="str">
         <f>IF('Sheet Trial'!F9 &lt;&gt; "",'Sheet Trial'!F9,"")</f>
         <v/>
       </c>
@@ -1399,27 +1402,27 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="6"/>
-      <c r="C26" s="9" t="str">
+      <c r="C26" s="14" t="str">
         <f>IF('Sheet Trial'!A10 &lt;&gt; "",'Sheet Trial'!A10,"")</f>
         <v/>
       </c>
-      <c r="D26" s="13" t="str">
+      <c r="D26" s="15" t="str">
         <f>IF('Sheet Trial'!B10 &lt;&gt; "",'Sheet Trial'!B10,"")</f>
         <v/>
       </c>
-      <c r="E26" s="13" t="str">
+      <c r="E26" s="15" t="str">
         <f>IF('Sheet Trial'!C10 &lt;&gt; "",'Sheet Trial'!C10,"")</f>
         <v/>
       </c>
-      <c r="F26" s="13" t="str">
+      <c r="F26" s="15" t="str">
         <f>IF('Sheet Trial'!D10 &lt;&gt; "",'Sheet Trial'!D10,"")</f>
         <v/>
       </c>
-      <c r="G26" s="13" t="str">
+      <c r="G26" s="15" t="str">
         <f>IF('Sheet Trial'!E10 &lt;&gt; "",'Sheet Trial'!E10,"")</f>
         <v/>
       </c>
-      <c r="H26" s="13" t="str">
+      <c r="H26" s="15" t="str">
         <f>IF('Sheet Trial'!F10 &lt;&gt; "",'Sheet Trial'!F10,"")</f>
         <v/>
       </c>
@@ -1427,51 +1430,45 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="6"/>
-      <c r="C27" s="9" t="str">
+      <c r="C27" s="14" t="str">
         <f>IF('Sheet Trial'!A11 &lt;&gt; "",'Sheet Trial'!A11,"")</f>
         <v/>
       </c>
-      <c r="D27" s="13" t="str">
+      <c r="D27" s="15" t="str">
         <f>IF('Sheet Trial'!B11 &lt;&gt; "",'Sheet Trial'!B11,"")</f>
         <v/>
       </c>
-      <c r="E27" s="13" t="str">
+      <c r="E27" s="15" t="str">
         <f>IF('Sheet Trial'!C11 &lt;&gt; "",'Sheet Trial'!C11,"")</f>
         <v/>
       </c>
-      <c r="F27" s="13" t="str">
+      <c r="F27" s="15" t="str">
         <f>IF('Sheet Trial'!D11 &lt;&gt; "",'Sheet Trial'!D11,"")</f>
         <v/>
       </c>
-      <c r="G27" s="13" t="str">
+      <c r="G27" s="15" t="str">
         <f>IF('Sheet Trial'!E11 &lt;&gt; "",'Sheet Trial'!E11,"")</f>
         <v/>
       </c>
-      <c r="H27" s="13" t="str">
+      <c r="H27" s="15" t="str">
         <f>IF('Sheet Trial'!F11 &lt;&gt; "",'Sheet Trial'!F11,"")</f>
         <v/>
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="2:9" ht="5.4" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+    <row r="28" spans="2:9" ht="5.45" customHeight="1">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D13:H13"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
@@ -1480,9 +1477,16 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D13:H13"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.75" header="0.27" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.35433070866141736" header="0.27559055118110237" footer="0"/>
+  <pageSetup paperSize="43" scale="79" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/public/Ticket Finish.xlsx
+++ b/public/Ticket Finish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\i-mirs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEBFB4-EBBE-4A76-89E2-37F35CC2F392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E02B9B-A08A-43B5-AF66-8384DF6A09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet1!$A$13:$H$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet1!$B$2:$I$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -373,13 +373,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F1BF87-762F-440D-88CA-B1BF3A57C479}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
@@ -939,12 +939,12 @@
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1">
       <c r="B3" s="6"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" customHeight="1">
@@ -1141,14 +1141,14 @@
     </row>
     <row r="16" spans="1:9" ht="16.2" customHeight="1">
       <c r="B16" s="6"/>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9">
@@ -1466,12 +1466,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D13:H13"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
@@ -1480,6 +1474,12 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.75" header="0.27" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/public/Ticket Finish.xlsx
+++ b/public/Ticket Finish.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\i-mirs\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\imirs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E02B9B-A08A-43B5-AF66-8384DF6A09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C1A801-8915-4863-9108-F6BA18FB4A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,13 +373,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,7 +755,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -858,7 +858,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H5"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -908,7 +908,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
@@ -939,12 +939,12 @@
     </row>
     <row r="3" spans="1:9" ht="15.6" customHeight="1">
       <c r="B3" s="6"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" customHeight="1">
@@ -1082,7 +1082,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="17" t="str">
-        <f>IF('Sheet Export'!I2&lt;&gt;"",'Sheet Export'!I2,"")</f>
+        <f>IF('Sheet Export'!K2&lt;&gt;"",'Sheet Export'!K2,"")</f>
         <v/>
       </c>
       <c r="E12" s="17"/>
@@ -1141,14 +1141,14 @@
     </row>
     <row r="16" spans="1:9" ht="16.2" customHeight="1">
       <c r="B16" s="6"/>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9">
@@ -1466,6 +1466,12 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D13:H13"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
@@ -1474,12 +1480,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.75" header="0.27" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/public/Ticket Finish.xlsx
+++ b/public/Ticket Finish.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\imirs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C1A801-8915-4863-9108-F6BA18FB4A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FAB631-5F9E-4DE8-BFA7-AB70224D7573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>MAKER</t>
   </si>
@@ -174,12 +174,18 @@
   </si>
   <si>
     <t>UM</t>
+  </si>
+  <si>
+    <t>no_surat_jalan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -348,7 +354,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -381,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -752,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -769,21 +778,22 @@
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -812,39 +822,42 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -908,7 +921,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
@@ -1033,14 +1046,14 @@
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="19" t="str">
         <f>IF('Sheet Export'!F2&lt;&gt;"",'Sheet Export'!F2,"")</f>
         <v/>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" customHeight="1">
@@ -1082,7 +1095,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="17" t="str">
-        <f>IF('Sheet Export'!K2&lt;&gt;"",'Sheet Export'!K2,"")</f>
+        <f>IF('Sheet Export'!L2&lt;&gt;"",'Sheet Export'!L2,"")</f>
         <v/>
       </c>
       <c r="E12" s="17"/>
@@ -1098,7 +1111,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="17" t="str">
-        <f>IF('Sheet Export'!L2&lt;&gt;"",'Sheet Export'!L2,"")</f>
+        <f>IF('Sheet Export'!M2&lt;&gt;"",'Sheet Export'!M2,"")</f>
         <v/>
       </c>
       <c r="E13" s="17"/>
@@ -1114,7 +1127,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="17" t="str">
-        <f>IF('Sheet Export'!S2&lt;&gt;"",'Sheet Export'!S2,"")</f>
+        <f>IF('Sheet Export'!T2&lt;&gt;"",'Sheet Export'!T2,"")</f>
         <v/>
       </c>
       <c r="E14" s="17"/>
@@ -1130,7 +1143,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="17" t="str">
-        <f>IF('Sheet Export'!T2&lt;&gt;"",'Sheet Export'!T2,"")</f>
+        <f>IF('Sheet Export'!U2&lt;&gt;"",'Sheet Export'!U2,"")</f>
         <v/>
       </c>
       <c r="E15" s="17"/>
